--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.459325</v>
+        <v>16.00662966666667</v>
       </c>
       <c r="H2">
-        <v>31.377975</v>
+        <v>48.019889</v>
       </c>
       <c r="I2">
-        <v>0.01983230002815326</v>
+        <v>0.03606400837650641</v>
       </c>
       <c r="J2">
-        <v>0.01983230002815325</v>
+        <v>0.0360640083765064</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.121368</v>
+        <v>2.325366666666667</v>
       </c>
       <c r="N2">
-        <v>6.364104</v>
+        <v>6.9761</v>
       </c>
       <c r="O2">
-        <v>0.1432906004545822</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="P2">
-        <v>0.1432906004545823</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="Q2">
-        <v>22.1880773566</v>
+        <v>37.22128307254444</v>
       </c>
       <c r="R2">
-        <v>199.6926962094</v>
+        <v>334.9915476529</v>
       </c>
       <c r="S2">
-        <v>0.002841782179429508</v>
+        <v>0.008587236070787929</v>
       </c>
       <c r="T2">
-        <v>0.002841782179429508</v>
+        <v>0.008587236070787926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.459325</v>
+        <v>16.00662966666667</v>
       </c>
       <c r="H3">
-        <v>31.377975</v>
+        <v>48.019889</v>
       </c>
       <c r="I3">
-        <v>0.01983230002815326</v>
+        <v>0.03606400837650641</v>
       </c>
       <c r="J3">
-        <v>0.01983230002815325</v>
+        <v>0.0360640083765064</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>15.069314</v>
       </c>
       <c r="O3">
-        <v>0.3392922321034732</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="P3">
-        <v>0.3392922321034733</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="Q3">
-        <v>52.53828421768333</v>
+        <v>80.40297617623844</v>
       </c>
       <c r="R3">
-        <v>472.84455795915</v>
+        <v>723.626785586146</v>
       </c>
       <c r="S3">
-        <v>0.006728945344297893</v>
+        <v>0.01854958454477854</v>
       </c>
       <c r="T3">
-        <v>0.006728945344297893</v>
+        <v>0.01854958454477853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.459325</v>
+        <v>16.00662966666667</v>
       </c>
       <c r="H4">
-        <v>31.377975</v>
+        <v>48.019889</v>
       </c>
       <c r="I4">
-        <v>0.01983230002815326</v>
+        <v>0.03606400837650641</v>
       </c>
       <c r="J4">
-        <v>0.01983230002815325</v>
+        <v>0.0360640083765064</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.613963333333333</v>
+        <v>2.411573666666667</v>
       </c>
       <c r="N4">
-        <v>22.84189</v>
+        <v>7.234721</v>
       </c>
       <c r="O4">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="P4">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="Q4">
-        <v>79.63691704141667</v>
+        <v>38.60116659621878</v>
       </c>
       <c r="R4">
-        <v>716.7322533727499</v>
+        <v>347.410499365969</v>
       </c>
       <c r="S4">
-        <v>0.01019965669110516</v>
+        <v>0.008905585804860441</v>
       </c>
       <c r="T4">
-        <v>0.01019965669110516</v>
+        <v>0.008905585804860438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.459325</v>
+        <v>16.00662966666667</v>
       </c>
       <c r="H5">
-        <v>31.377975</v>
+        <v>48.019889</v>
       </c>
       <c r="I5">
-        <v>0.01983230002815326</v>
+        <v>0.03606400837650641</v>
       </c>
       <c r="J5">
-        <v>0.01983230002815325</v>
+        <v>0.0360640083765064</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04621966666666667</v>
+        <v>0.005849666666666666</v>
       </c>
       <c r="N5">
-        <v>0.138659</v>
+        <v>0.017549</v>
       </c>
       <c r="O5">
-        <v>0.003121968366392491</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="P5">
-        <v>0.003121968366392492</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="Q5">
-        <v>0.4834265150583333</v>
+        <v>0.09363344800677777</v>
       </c>
       <c r="R5">
-        <v>4.350838635525</v>
+        <v>0.8427010320609999</v>
       </c>
       <c r="S5">
-        <v>6.191581332069937E-05</v>
+        <v>2.160195607950823E-05</v>
       </c>
       <c r="T5">
-        <v>6.191581332069938E-05</v>
+        <v>2.160195607950822E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1128.778168</v>
       </c>
       <c r="I6">
-        <v>0.7134388784810104</v>
+        <v>0.8477375969355022</v>
       </c>
       <c r="J6">
-        <v>0.7134388784810103</v>
+        <v>0.8477375969355019</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.121368</v>
+        <v>2.325366666666667</v>
       </c>
       <c r="N6">
-        <v>6.364104</v>
+        <v>6.9761</v>
       </c>
       <c r="O6">
-        <v>0.1432906004545822</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="P6">
-        <v>0.1432906004545823</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="Q6">
-        <v>798.1846282312746</v>
+        <v>874.9410419760887</v>
       </c>
       <c r="R6">
-        <v>7183.661654081473</v>
+        <v>7874.469377784799</v>
       </c>
       <c r="S6">
-        <v>0.1022290852851877</v>
+        <v>0.2018556227851238</v>
       </c>
       <c r="T6">
-        <v>0.1022290852851877</v>
+        <v>0.2018556227851237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1128.778168</v>
       </c>
       <c r="I7">
-        <v>0.7134388784810104</v>
+        <v>0.8477375969355022</v>
       </c>
       <c r="J7">
-        <v>0.7134388784810103</v>
+        <v>0.8477375969355019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>15.069314</v>
       </c>
       <c r="O7">
-        <v>0.3392922321034732</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="P7">
-        <v>0.3392922321034733</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="Q7">
         <v>1889.990294437417</v>
@@ -889,10 +889,10 @@
         <v>17009.91264993675</v>
       </c>
       <c r="S7">
-        <v>0.2420642695492206</v>
+        <v>0.4360352865375475</v>
       </c>
       <c r="T7">
-        <v>0.2420642695492206</v>
+        <v>0.4360352865375474</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1128.778168</v>
       </c>
       <c r="I8">
-        <v>0.7134388784810104</v>
+        <v>0.8477375969355022</v>
       </c>
       <c r="J8">
-        <v>0.7134388784810103</v>
+        <v>0.8477375969355019</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.613963333333333</v>
+        <v>2.411573666666667</v>
       </c>
       <c r="N8">
-        <v>22.84189</v>
+        <v>7.234721</v>
       </c>
       <c r="O8">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="P8">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="Q8">
-        <v>2864.825194206391</v>
+        <v>907.3772351523476</v>
       </c>
       <c r="R8">
-        <v>25783.42674785752</v>
+        <v>8166.395116371127</v>
       </c>
       <c r="S8">
-        <v>0.3669181900366298</v>
+        <v>0.2093389018408013</v>
       </c>
       <c r="T8">
-        <v>0.3669181900366298</v>
+        <v>0.2093389018408012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1128.778168</v>
       </c>
       <c r="I9">
-        <v>0.7134388784810104</v>
+        <v>0.8477375969355022</v>
       </c>
       <c r="J9">
-        <v>0.7134388784810103</v>
+        <v>0.8477375969355019</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.04621966666666667</v>
+        <v>0.005849666666666666</v>
       </c>
       <c r="N9">
-        <v>0.138659</v>
+        <v>0.017549</v>
       </c>
       <c r="O9">
-        <v>0.003121968366392491</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="P9">
-        <v>0.003121968366392492</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="Q9">
-        <v>17.39058355519022</v>
+        <v>2.200992007803555</v>
       </c>
       <c r="R9">
-        <v>156.515251996712</v>
+        <v>19.808928070232</v>
       </c>
       <c r="S9">
-        <v>0.002227333609972251</v>
+        <v>0.0005077857720296638</v>
       </c>
       <c r="T9">
-        <v>0.002227333609972251</v>
+        <v>0.0005077857720296636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.4776923333333333</v>
+        <v>0.05517</v>
       </c>
       <c r="H10">
-        <v>1.433077</v>
+        <v>0.16551</v>
       </c>
       <c r="I10">
-        <v>0.0009057695095826224</v>
+        <v>0.0001243017039542839</v>
       </c>
       <c r="J10">
-        <v>0.0009057695095826223</v>
+        <v>0.0001243017039542839</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.121368</v>
+        <v>2.325366666666667</v>
       </c>
       <c r="N10">
-        <v>6.364104</v>
+        <v>6.9761</v>
       </c>
       <c r="O10">
-        <v>0.1432906004545822</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="P10">
-        <v>0.1432906004545823</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="Q10">
-        <v>1.013361229778667</v>
+        <v>0.128290479</v>
       </c>
       <c r="R10">
-        <v>9.120251068008001</v>
+        <v>1.154614311</v>
       </c>
       <c r="S10">
-        <v>0.0001297882569015464</v>
+        <v>2.959759948791448E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001297882569015464</v>
+        <v>2.959759948791447E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.4776923333333333</v>
+        <v>0.05517</v>
       </c>
       <c r="H11">
-        <v>1.433077</v>
+        <v>0.16551</v>
       </c>
       <c r="I11">
-        <v>0.0009057695095826224</v>
+        <v>0.0001243017039542839</v>
       </c>
       <c r="J11">
-        <v>0.0009057695095826223</v>
+        <v>0.0001243017039542839</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>15.069314</v>
       </c>
       <c r="O11">
-        <v>0.3392922321034732</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="P11">
-        <v>0.3392922321034733</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="Q11">
-        <v>2.399498588797556</v>
+        <v>0.27712468446</v>
       </c>
       <c r="R11">
-        <v>21.595487299178</v>
+        <v>2.49412216014</v>
       </c>
       <c r="S11">
-        <v>0.0003073205586775562</v>
+        <v>6.39347945599436E-05</v>
       </c>
       <c r="T11">
-        <v>0.0003073205586775562</v>
+        <v>6.393479455994357E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4776923333333333</v>
+        <v>0.05517</v>
       </c>
       <c r="H12">
-        <v>1.433077</v>
+        <v>0.16551</v>
       </c>
       <c r="I12">
-        <v>0.0009057695095826224</v>
+        <v>0.0001243017039542839</v>
       </c>
       <c r="J12">
-        <v>0.0009057695095826223</v>
+        <v>0.0001243017039542839</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.613963333333333</v>
+        <v>2.411573666666667</v>
       </c>
       <c r="N12">
-        <v>22.84189</v>
+        <v>7.234721</v>
       </c>
       <c r="O12">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="P12">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="Q12">
-        <v>3.637131910614444</v>
+        <v>0.13304651919</v>
       </c>
       <c r="R12">
-        <v>32.73418719553</v>
+        <v>1.19741867271</v>
       </c>
       <c r="S12">
-        <v>0.00046583291024736</v>
+        <v>3.069485451252192E-05</v>
       </c>
       <c r="T12">
-        <v>0.0004658329102473599</v>
+        <v>3.06948545125219E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.4776923333333333</v>
+        <v>0.05517</v>
       </c>
       <c r="H13">
-        <v>1.433077</v>
+        <v>0.16551</v>
       </c>
       <c r="I13">
-        <v>0.0009057695095826224</v>
+        <v>0.0001243017039542839</v>
       </c>
       <c r="J13">
-        <v>0.0009057695095826223</v>
+        <v>0.0001243017039542839</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.04621966666666667</v>
+        <v>0.005849666666666666</v>
       </c>
       <c r="N13">
-        <v>0.138659</v>
+        <v>0.017549</v>
       </c>
       <c r="O13">
-        <v>0.003121968366392491</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="P13">
-        <v>0.003121968366392492</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="Q13">
-        <v>0.02207878041588889</v>
+        <v>0.00032272611</v>
       </c>
       <c r="R13">
-        <v>0.198709023743</v>
+        <v>0.00290453499</v>
       </c>
       <c r="S13">
-        <v>2.827783756159787E-06</v>
+        <v>7.445539390395939E-08</v>
       </c>
       <c r="T13">
-        <v>2.827783756159787E-06</v>
+        <v>7.445539390395937E-08</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.4418183333333</v>
+        <v>50.97344933333333</v>
       </c>
       <c r="H14">
-        <v>409.325455</v>
+        <v>152.920348</v>
       </c>
       <c r="I14">
-        <v>0.2587122092079028</v>
+        <v>0.114846594318664</v>
       </c>
       <c r="J14">
-        <v>0.2587122092079028</v>
+        <v>0.114846594318664</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.121368</v>
+        <v>2.325366666666667</v>
       </c>
       <c r="N14">
-        <v>6.364104</v>
+        <v>6.9761</v>
       </c>
       <c r="O14">
-        <v>0.1432906004545822</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="P14">
-        <v>0.1432906004545823</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="Q14">
-        <v>289.4433072741467</v>
+        <v>118.5319599647555</v>
       </c>
       <c r="R14">
-        <v>2604.98976546732</v>
+        <v>1066.7876396828</v>
       </c>
       <c r="S14">
-        <v>0.03707102780233189</v>
+        <v>0.02734623414691864</v>
       </c>
       <c r="T14">
-        <v>0.0370710278023319</v>
+        <v>0.02734623414691863</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.4418183333333</v>
+        <v>50.97344933333333</v>
       </c>
       <c r="H15">
-        <v>409.325455</v>
+        <v>152.920348</v>
       </c>
       <c r="I15">
-        <v>0.2587122092079028</v>
+        <v>0.114846594318664</v>
       </c>
       <c r="J15">
-        <v>0.2587122092079028</v>
+        <v>0.114846594318664</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>15.069314</v>
       </c>
       <c r="O15">
-        <v>0.3392922321034732</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="P15">
-        <v>0.3392922321034733</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="Q15">
-        <v>685.3615343986523</v>
+        <v>256.0449712223635</v>
       </c>
       <c r="R15">
-        <v>6168.253809587871</v>
+        <v>2304.404741001272</v>
       </c>
       <c r="S15">
-        <v>0.08777904293457009</v>
+        <v>0.05907154270687621</v>
       </c>
       <c r="T15">
-        <v>0.0877790429345701</v>
+        <v>0.05907154270687619</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.4418183333333</v>
+        <v>50.97344933333333</v>
       </c>
       <c r="H16">
-        <v>409.325455</v>
+        <v>152.920348</v>
       </c>
       <c r="I16">
-        <v>0.2587122092079028</v>
+        <v>0.114846594318664</v>
       </c>
       <c r="J16">
-        <v>0.2587122092079028</v>
+        <v>0.114846594318664</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.613963333333333</v>
+        <v>2.411573666666667</v>
       </c>
       <c r="N16">
-        <v>22.84189</v>
+        <v>7.234721</v>
       </c>
       <c r="O16">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="P16">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="Q16">
-        <v>1038.863001923328</v>
+        <v>122.9262281114342</v>
       </c>
       <c r="R16">
-        <v>9349.76701730995</v>
+        <v>1106.336053002908</v>
       </c>
       <c r="S16">
-        <v>0.1330544471378543</v>
+        <v>0.0283600255807155</v>
       </c>
       <c r="T16">
-        <v>0.1330544471378543</v>
+        <v>0.02836002558071549</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.4418183333333</v>
+        <v>50.97344933333333</v>
       </c>
       <c r="H17">
-        <v>409.325455</v>
+        <v>152.920348</v>
       </c>
       <c r="I17">
-        <v>0.2587122092079028</v>
+        <v>0.114846594318664</v>
       </c>
       <c r="J17">
-        <v>0.2587122092079028</v>
+        <v>0.114846594318664</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.04621966666666667</v>
+        <v>0.005849666666666666</v>
       </c>
       <c r="N17">
-        <v>0.138659</v>
+        <v>0.017549</v>
       </c>
       <c r="O17">
-        <v>0.003121968366392491</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="P17">
-        <v>0.003121968366392492</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="Q17">
-        <v>6.306295362760556</v>
+        <v>0.2981776874502222</v>
       </c>
       <c r="R17">
-        <v>56.75665826484501</v>
+        <v>2.683599187052</v>
       </c>
       <c r="S17">
-        <v>0.0008076913331465887</v>
+        <v>6.879188415364963E-05</v>
       </c>
       <c r="T17">
-        <v>0.0008076913331465889</v>
+        <v>6.879188415364961E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.270659</v>
+        <v>0.5045356666666666</v>
       </c>
       <c r="H18">
-        <v>0.8119769999999999</v>
+        <v>1.513607</v>
       </c>
       <c r="I18">
-        <v>0.0005132062053067413</v>
+        <v>0.001136752638614778</v>
       </c>
       <c r="J18">
-        <v>0.0005132062053067412</v>
+        <v>0.001136752638614777</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.121368</v>
+        <v>2.325366666666667</v>
       </c>
       <c r="N18">
-        <v>6.364104</v>
+        <v>6.9761</v>
       </c>
       <c r="O18">
-        <v>0.1432906004545822</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="P18">
-        <v>0.1432906004545823</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="Q18">
-        <v>0.574167341512</v>
+        <v>1.173230421411111</v>
       </c>
       <c r="R18">
-        <v>5.167506073608</v>
+        <v>10.5590737927</v>
       </c>
       <c r="S18">
-        <v>7.353762531542056E-05</v>
+        <v>0.0002706732751380809</v>
       </c>
       <c r="T18">
-        <v>7.353762531542056E-05</v>
+        <v>0.0002706732751380808</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.270659</v>
+        <v>0.5045356666666666</v>
       </c>
       <c r="H19">
-        <v>0.8119769999999999</v>
+        <v>1.513607</v>
       </c>
       <c r="I19">
-        <v>0.0005132062053067413</v>
+        <v>0.001136752638614778</v>
       </c>
       <c r="J19">
-        <v>0.0005132062053067412</v>
+        <v>0.001136752638614777</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>15.069314</v>
       </c>
       <c r="O19">
-        <v>0.3392922321034732</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="P19">
-        <v>0.3392922321034733</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="Q19">
-        <v>1.359548485975333</v>
+        <v>2.534335461733111</v>
       </c>
       <c r="R19">
-        <v>12.235936373778</v>
+        <v>22.809019155598</v>
       </c>
       <c r="S19">
-        <v>0.0001741268789278776</v>
+        <v>0.0005846906687782765</v>
       </c>
       <c r="T19">
-        <v>0.0001741268789278776</v>
+        <v>0.0005846906687782764</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.270659</v>
+        <v>0.5045356666666666</v>
       </c>
       <c r="H20">
-        <v>0.8119769999999999</v>
+        <v>1.513607</v>
       </c>
       <c r="I20">
-        <v>0.0005132062053067413</v>
+        <v>0.001136752638614778</v>
       </c>
       <c r="J20">
-        <v>0.0005132062053067412</v>
+        <v>0.001136752638614777</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.613963333333333</v>
+        <v>2.411573666666667</v>
       </c>
       <c r="N20">
-        <v>22.84189</v>
+        <v>7.234721</v>
       </c>
       <c r="O20">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="P20">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="Q20">
-        <v>2.060787701836666</v>
+        <v>1.216724927627444</v>
       </c>
       <c r="R20">
-        <v>18.54708931653</v>
+        <v>10.950524348647</v>
       </c>
       <c r="S20">
-        <v>0.0002639394875250392</v>
+        <v>0.0002807077920012975</v>
       </c>
       <c r="T20">
-        <v>0.0002639394875250391</v>
+        <v>0.0002807077920012975</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.270659</v>
+        <v>0.5045356666666666</v>
       </c>
       <c r="H21">
-        <v>0.8119769999999999</v>
+        <v>1.513607</v>
       </c>
       <c r="I21">
-        <v>0.0005132062053067413</v>
+        <v>0.001136752638614778</v>
       </c>
       <c r="J21">
-        <v>0.0005132062053067412</v>
+        <v>0.001136752638614777</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.04621966666666667</v>
+        <v>0.005849666666666666</v>
       </c>
       <c r="N21">
-        <v>0.138659</v>
+        <v>0.017549</v>
       </c>
       <c r="O21">
-        <v>0.003121968366392491</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="P21">
-        <v>0.003121968366392492</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="Q21">
-        <v>0.01250976876033333</v>
+        <v>0.002951365471444444</v>
       </c>
       <c r="R21">
-        <v>0.112587918843</v>
+        <v>0.026562289243</v>
       </c>
       <c r="S21">
-        <v>1.602213538403976E-06</v>
+        <v>6.809026971227737E-07</v>
       </c>
       <c r="T21">
-        <v>1.602213538403977E-06</v>
+        <v>6.809026971227735E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>3.479517</v>
+        <v>0.04027666666666666</v>
       </c>
       <c r="H22">
-        <v>10.438551</v>
+        <v>0.12083</v>
       </c>
       <c r="I22">
-        <v>0.00659763656804428</v>
+        <v>9.074602675848062E-05</v>
       </c>
       <c r="J22">
-        <v>0.006597636568044279</v>
+        <v>9.074602675848059E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.121368</v>
+        <v>2.325366666666667</v>
       </c>
       <c r="N22">
-        <v>6.364104</v>
+        <v>6.9761</v>
       </c>
       <c r="O22">
-        <v>0.1432906004545822</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="P22">
-        <v>0.1432906004545823</v>
+        <v>0.2381109715020477</v>
       </c>
       <c r="Q22">
-        <v>7.381336019256</v>
+        <v>0.0936580181111111</v>
       </c>
       <c r="R22">
-        <v>66.432024173304</v>
+        <v>0.8429221629999999</v>
       </c>
       <c r="S22">
-        <v>0.000945379305416174</v>
+        <v>2.160762459141264E-05</v>
       </c>
       <c r="T22">
-        <v>0.000945379305416174</v>
+        <v>2.160762459141263E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>3.479517</v>
+        <v>0.04027666666666666</v>
       </c>
       <c r="H23">
-        <v>10.438551</v>
+        <v>0.12083</v>
       </c>
       <c r="I23">
-        <v>0.00659763656804428</v>
+        <v>9.074602675848062E-05</v>
       </c>
       <c r="J23">
-        <v>0.006597636568044279</v>
+        <v>9.074602675848059E-05</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>15.069314</v>
       </c>
       <c r="O23">
-        <v>0.3392922321034732</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="P23">
-        <v>0.3392922321034733</v>
+        <v>0.5143517146269992</v>
       </c>
       <c r="Q23">
-        <v>17.477978080446</v>
+        <v>0.2023139122911111</v>
       </c>
       <c r="R23">
-        <v>157.301802724014</v>
+        <v>1.82082521062</v>
       </c>
       <c r="S23">
-        <v>0.002238526837779242</v>
+        <v>4.667537445881206E-05</v>
       </c>
       <c r="T23">
-        <v>0.002238526837779242</v>
+        <v>4.667537445881204E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>3.479517</v>
+        <v>0.04027666666666666</v>
       </c>
       <c r="H24">
-        <v>10.438551</v>
+        <v>0.12083</v>
       </c>
       <c r="I24">
-        <v>0.00659763656804428</v>
+        <v>9.074602675848062E-05</v>
       </c>
       <c r="J24">
-        <v>0.006597636568044279</v>
+        <v>9.074602675848059E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.613963333333333</v>
+        <v>2.411573666666667</v>
       </c>
       <c r="N24">
-        <v>22.84189</v>
+        <v>7.234721</v>
       </c>
       <c r="O24">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="P24">
-        <v>0.5142951990755521</v>
+        <v>0.2469383245446978</v>
       </c>
       <c r="Q24">
-        <v>26.49291485571</v>
+        <v>0.09713014871444445</v>
       </c>
       <c r="R24">
-        <v>238.43623370139</v>
+        <v>0.8741713384299999</v>
       </c>
       <c r="S24">
-        <v>0.003393132812190475</v>
+        <v>2.240867180682752E-05</v>
       </c>
       <c r="T24">
-        <v>0.003393132812190475</v>
+        <v>2.240867180682751E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>3.479517</v>
+        <v>0.04027666666666666</v>
       </c>
       <c r="H25">
-        <v>10.438551</v>
+        <v>0.12083</v>
       </c>
       <c r="I25">
-        <v>0.00659763656804428</v>
+        <v>9.074602675848062E-05</v>
       </c>
       <c r="J25">
-        <v>0.006597636568044279</v>
+        <v>9.074602675848059E-05</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.04621966666666667</v>
+        <v>0.005849666666666666</v>
       </c>
       <c r="N25">
-        <v>0.138659</v>
+        <v>0.017549</v>
       </c>
       <c r="O25">
-        <v>0.003121968366392491</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="P25">
-        <v>0.003121968366392492</v>
+        <v>0.0005989893262552767</v>
       </c>
       <c r="Q25">
-        <v>0.160822115901</v>
+        <v>0.0002356050744444444</v>
       </c>
       <c r="R25">
-        <v>1.447399043109</v>
+        <v>0.00212044567</v>
       </c>
       <c r="S25">
-        <v>2.059761265838856E-05</v>
+        <v>5.435590142840561E-08</v>
       </c>
       <c r="T25">
-        <v>2.059761265838856E-05</v>
+        <v>5.43559014284056E-08</v>
       </c>
     </row>
   </sheetData>
